--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01088535816089859</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.929887690482831</v>
+        <v>-1.936099465085602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3920589095472732</v>
+        <v>0.389600188562183</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2308151266114686</v>
+        <v>-0.2276059409076513</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.009181209782166522</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.943905612203645</v>
+        <v>-1.950045844449962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3103867394380224</v>
+        <v>0.3087806865380229</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2112869833955648</v>
+        <v>-0.2079201124979293</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.01536194322213943</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.012362157018036</v>
+        <v>-2.025955204744396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2842358180817567</v>
+        <v>0.2762624954573043</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2289404248627418</v>
+        <v>-0.2241091257299249</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.001495637113517052</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.078506715680473</v>
+        <v>-2.085003199660971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2592091337554907</v>
+        <v>0.252279745516038</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355529826664673</v>
+        <v>-0.2270131613827424</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.03164614753765733</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.044248877299436</v>
+        <v>-2.048141365509799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2470688338795849</v>
+        <v>0.2346525849144973</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2233557409150161</v>
+        <v>-0.2147516775152911</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07646700925458919</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.911899898002835</v>
+        <v>-1.907130650913882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2611247168507629</v>
+        <v>0.2557356793472189</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.210003601123656</v>
+        <v>-0.2025894769180216</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1204326033505113</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.639487045297272</v>
+        <v>-1.634934615349819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2585302113932182</v>
+        <v>0.2586922767313091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.182865687257936</v>
+        <v>-0.1842804738580266</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1519766909938627</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261955110190555</v>
+        <v>-1.262467587070464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2424477816718588</v>
+        <v>0.2393145184687688</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1244725239101335</v>
+        <v>-0.1300280068960411</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.16332424465048</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7734653603671411</v>
+        <v>-0.7811335329405935</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2674073037859431</v>
+        <v>0.268160688600852</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02513669199706929</v>
+        <v>-0.03061625248224964</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.14890302802244</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2377707957165577</v>
+        <v>-0.253788983321917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1635073615406982</v>
+        <v>0.1513933425304288</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06334952255245241</v>
+        <v>0.05598796007809075</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1062031419580879</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4257188582350824</v>
+        <v>0.4197487215913567</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04191017638554907</v>
+        <v>0.02749074143973476</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1635044414445164</v>
+        <v>0.1531439401914283</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03496585497543657</v>
       </c>
       <c r="E13" t="n">
-        <v>1.113046717366989</v>
+        <v>1.094806336567266</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1241732140514972</v>
+        <v>-0.1367705089798575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2942064864945722</v>
+        <v>0.2892175021679372</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06362100168199225</v>
       </c>
       <c r="E14" t="n">
-        <v>1.82920760619816</v>
+        <v>1.814710788703528</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3427424132605295</v>
+        <v>-0.3720484985412489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4421239585845325</v>
+        <v>0.4333607499428985</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1871476811093149</v>
       </c>
       <c r="E15" t="n">
-        <v>2.532315665096608</v>
+        <v>2.521463127636883</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6148223750013655</v>
+        <v>-0.6453855616883573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6303986199553001</v>
+        <v>0.6245555074954835</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3329282413254435</v>
       </c>
       <c r="E16" t="n">
-        <v>3.201000170155701</v>
+        <v>3.197036139588884</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9351583861948249</v>
+        <v>-0.9584417731005459</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7853885649976221</v>
+        <v>0.7817647256359868</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4982424240802539</v>
       </c>
       <c r="E17" t="n">
-        <v>3.856033225564798</v>
+        <v>3.855075434017162</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.193976731125937</v>
+        <v>-1.226578144947838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9845785458960232</v>
+        <v>0.9819796602942057</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6792068506233178</v>
       </c>
       <c r="E18" t="n">
-        <v>4.395246506114471</v>
+        <v>4.392430073347108</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.555664224350113</v>
+        <v>-1.57945570799147</v>
       </c>
       <c r="G18" t="n">
-        <v>1.183710124870788</v>
+        <v>1.18103093662397</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8697203648271068</v>
       </c>
       <c r="E19" t="n">
-        <v>4.922539954049966</v>
+        <v>4.917406424962331</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.83645483300131</v>
+        <v>-1.868751096772211</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378057126251645</v>
+        <v>1.384447756745552</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.062650898555223</v>
       </c>
       <c r="E20" t="n">
-        <v>5.282946985098414</v>
+        <v>5.27990278482887</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.157841348796179</v>
+        <v>-2.188746186736443</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58801934196477</v>
+        <v>1.593573364902587</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.248003595252292</v>
       </c>
       <c r="E21" t="n">
-        <v>5.594386923273968</v>
+        <v>5.586876435894333</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.471088826508276</v>
+        <v>-2.506514703362039</v>
       </c>
       <c r="G21" t="n">
-        <v>1.767803823686904</v>
+        <v>1.775996153524993</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.41533819672759</v>
       </c>
       <c r="E22" t="n">
-        <v>5.829340782159177</v>
+        <v>5.833374895034358</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.780863579836148</v>
+        <v>-2.818133497428728</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895464588563597</v>
+        <v>1.90175155564305</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.553388907673752</v>
       </c>
       <c r="E23" t="n">
-        <v>5.976935583621047</v>
+        <v>5.987858203389134</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.032816048619762</v>
+        <v>-3.064768471065253</v>
       </c>
       <c r="G23" t="n">
-        <v>2.01213557146002</v>
+        <v>2.020700213561291</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.654292536969248</v>
       </c>
       <c r="E24" t="n">
-        <v>6.067373882468113</v>
+        <v>6.075703456826747</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.266879278169517</v>
+        <v>-3.296969409275055</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115158024802629</v>
+        <v>2.125503925574808</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.715804591280014</v>
       </c>
       <c r="E25" t="n">
-        <v>6.080282167639837</v>
+        <v>6.093457641612197</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.441538991092561</v>
+        <v>-3.47359142683228</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174636003881977</v>
+        <v>2.173752674786976</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.739096595059086</v>
       </c>
       <c r="E26" t="n">
-        <v>6.027978864879215</v>
+        <v>6.038829942290848</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.60626161670888</v>
+        <v>-3.639282064332872</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201029293221333</v>
+        <v>2.194670783785425</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.727310882659776</v>
       </c>
       <c r="E27" t="n">
-        <v>5.928263420462514</v>
+        <v>5.930215504760059</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.693516280693721</v>
+        <v>-3.732753613088801</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202597384870969</v>
+        <v>2.204080793731332</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.684999804386899</v>
       </c>
       <c r="E28" t="n">
-        <v>5.857300703100078</v>
+        <v>5.854776279950897</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.760896040041066</v>
+        <v>-3.798338243308374</v>
       </c>
       <c r="G28" t="n">
-        <v>2.211426295676694</v>
+        <v>2.208677025121513</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.617186204890123</v>
       </c>
       <c r="E29" t="n">
-        <v>5.662495246618676</v>
+        <v>5.656111916365223</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.798122886214965</v>
+        <v>-3.838438464125182</v>
       </c>
       <c r="G29" t="n">
-        <v>2.205991996682332</v>
+        <v>2.208358734637695</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.53011820928283</v>
       </c>
       <c r="E30" t="n">
-        <v>5.452439587827732</v>
+        <v>5.442960955621554</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.821909259688004</v>
+        <v>-3.871791072689855</v>
       </c>
       <c r="G30" t="n">
-        <v>2.160072024175162</v>
+        <v>2.164589412968434</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.431272825807687</v>
       </c>
       <c r="E31" t="n">
-        <v>5.174655218195716</v>
+        <v>5.157337587789448</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.718002017202305</v>
+        <v>-3.762505013037248</v>
       </c>
       <c r="G31" t="n">
-        <v>2.077298977805366</v>
+        <v>2.082898262234001</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.326877107762639</v>
       </c>
       <c r="E32" t="n">
-        <v>4.867224572077799</v>
+        <v>4.852035691788076</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.635927603844009</v>
+        <v>-3.685643701387541</v>
       </c>
       <c r="G32" t="n">
-        <v>1.929784478988497</v>
+        <v>1.937007336894222</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.222375942524267</v>
       </c>
       <c r="E33" t="n">
-        <v>4.586228096645783</v>
+        <v>4.568303086233697</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.501130123898954</v>
+        <v>-3.543411656563579</v>
       </c>
       <c r="G33" t="n">
-        <v>1.837909492819976</v>
+        <v>1.845005326541792</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.121676719968417</v>
       </c>
       <c r="E34" t="n">
-        <v>4.256191525936327</v>
+        <v>4.236340712092332</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.391124260537529</v>
+        <v>-3.421407848015112</v>
       </c>
       <c r="G34" t="n">
-        <v>1.715071266787554</v>
+        <v>1.712581884792555</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.025904993436037</v>
       </c>
       <c r="E35" t="n">
-        <v>3.911493152297965</v>
+        <v>3.897377407355059</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.272892486231925</v>
+        <v>-3.306495493044188</v>
       </c>
       <c r="G35" t="n">
-        <v>1.599677825970676</v>
+        <v>1.603558633796311</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9360101596374232</v>
       </c>
       <c r="E36" t="n">
-        <v>3.575203195615146</v>
+        <v>3.566555330772693</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.146935597477322</v>
+        <v>-3.183809842037267</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455849948583351</v>
+        <v>1.451465424166352</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8520009346628437</v>
       </c>
       <c r="E37" t="n">
-        <v>3.229057914318693</v>
+        <v>3.208319391235426</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.011404443366585</v>
+        <v>-3.038045210857351</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325204845408841</v>
+        <v>1.320380846516479</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7734134041341855</v>
       </c>
       <c r="E38" t="n">
-        <v>2.868284411199427</v>
+        <v>2.85196545368734</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.958090787327055</v>
+        <v>-2.974863089771368</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179319760261425</v>
+        <v>1.176281400184245</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6999816042607193</v>
       </c>
       <c r="E39" t="n">
-        <v>2.5259571556607</v>
+        <v>2.504942683488252</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.818363455003047</v>
+        <v>-2.835116776822178</v>
       </c>
       <c r="G39" t="n">
-        <v>1.077742754528816</v>
+        <v>1.076472512689726</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6313675906341173</v>
       </c>
       <c r="E40" t="n">
-        <v>2.209596855418785</v>
+        <v>2.189013097433155</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702176478048759</v>
+        <v>-2.712943602695166</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9579020072270303</v>
+        <v>0.9547497633987585</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5665566156333988</v>
       </c>
       <c r="E41" t="n">
-        <v>1.876727791412965</v>
+        <v>1.856560147133244</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.57323525099634</v>
+        <v>-2.58309276568211</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8357748246148814</v>
+        <v>0.8337453577685182</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5055117247570177</v>
       </c>
       <c r="E42" t="n">
-        <v>1.546022518677872</v>
+        <v>1.524548131356787</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.507077551901085</v>
+        <v>-2.520586646862217</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7189359361880037</v>
+        <v>0.7178686410335494</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4474727696903695</v>
       </c>
       <c r="E43" t="n">
-        <v>1.28035946829658</v>
+        <v>1.262840351253767</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.427235552073788</v>
+        <v>-2.439453964522557</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6559523816423842</v>
+        <v>0.6516014383314762</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3911401472433139</v>
       </c>
       <c r="E44" t="n">
-        <v>1.010653544751562</v>
+        <v>0.9991644263242011</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.314272361304227</v>
+        <v>-2.320200886577362</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5480212466181404</v>
+        <v>0.5447843200005958</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3362327591650598</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7879305087238943</v>
+        <v>0.7864573202001673</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270017573644739</v>
+        <v>-2.276541798538965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4417034647343508</v>
+        <v>0.4363173473269886</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2825727877516494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5532832599377754</v>
+        <v>0.5544790393242296</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.178250631034946</v>
+        <v>-2.181875200420627</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3726767711404603</v>
+        <v>0.3768203876224591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2302406476940746</v>
       </c>
       <c r="E47" t="n">
-        <v>0.354738620295556</v>
+        <v>0.3568279491136463</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.087157500619107</v>
+        <v>-2.099603680570058</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2922120608023909</v>
+        <v>0.2937232105764814</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1801699412828444</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2347460279923155</v>
+        <v>0.2429018566281315</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.983259748445998</v>
+        <v>-1.993558927679268</v>
       </c>
       <c r="G48" t="n">
-        <v>0.201986928976597</v>
+        <v>0.209087142842686</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1330210742828172</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1066501687845317</v>
+        <v>0.1122874144635302</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.883317266551161</v>
+        <v>-1.896800080646658</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1503523282416108</v>
+        <v>0.1536695575041554</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08895305117056526</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001674171096287147</v>
+        <v>0.005931671329376912</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.798235154125593</v>
+        <v>-1.815676888619588</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08359454938099242</v>
+        <v>0.08975595232462713</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0482101558532043</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08781071634741609</v>
+        <v>-0.08565714541332577</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.668066026628719</v>
+        <v>-1.68538803717926</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02442318040073558</v>
+        <v>0.03440406915018745</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.009934288052837111</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1893205598678434</v>
+        <v>-0.1962791490691143</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.54707914157557</v>
+        <v>-1.568162236008291</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01075813839780042</v>
+        <v>-0.007646775916073986</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02614701912530397</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3085364065867205</v>
+        <v>-0.3232215702850801</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.435110973579963</v>
+        <v>-1.451761362008686</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07749985672941886</v>
+        <v>-0.07720200691887349</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06064490144356985</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3423116990737114</v>
+        <v>-0.3474963298445282</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.363770103761982</v>
+        <v>-1.378932703186069</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1413419195524926</v>
+        <v>-0.1414441229188562</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.093595649308819</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4703228754922225</v>
+        <v>-0.4818937566126739</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.317619443656449</v>
+        <v>-1.33515024108399</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1492641404937632</v>
+        <v>-0.1583091384169426</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1253303933369386</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5477083444065654</v>
+        <v>-0.5676423809917418</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.235104825798744</v>
+        <v>-1.240266095800107</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.200088414538295</v>
+        <v>-0.2041531884233849</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1554857014008537</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6464791377084479</v>
+        <v>-0.674303274176895</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.193747503575665</v>
+        <v>-1.199758521565936</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2285754128400147</v>
+        <v>-0.2378423380730122</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1837904746842637</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6681199705118966</v>
+        <v>-0.6981049781548886</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.154381686948584</v>
+        <v>-1.154732098490402</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2627668190329146</v>
+        <v>-0.273730320147548</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.209498454372543</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7649547400452342</v>
+        <v>-0.7868948827073193</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.140591532729952</v>
+        <v>-1.144723468827223</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3152088263621732</v>
+        <v>-0.3245940154905343</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.231822039413304</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.83174025981958</v>
+        <v>-0.8484797111818482</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102126565774962</v>
+        <v>-1.097622317414509</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3486059663936188</v>
+        <v>-0.3589343465887069</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2506092945711731</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.961607157361636</v>
+        <v>-0.9860206214897204</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.091874108080601</v>
+        <v>-1.095497947442236</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3921095593103344</v>
+        <v>-0.4012567605998774</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2657592271383646</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.081998342793695</v>
+        <v>-1.111440212546869</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.091460914470874</v>
+        <v>-1.095273100036237</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4328916225855962</v>
+        <v>-0.4460043144900472</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2775080161921786</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.142489595248133</v>
+        <v>-1.170636402344671</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.130391636766863</v>
+        <v>-1.133729306702681</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.492079052094853</v>
+        <v>-0.5075395013294852</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2862075033018628</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.237697871208198</v>
+        <v>-1.264002097614009</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.158767671413674</v>
+        <v>-1.166989202213581</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5211018880459362</v>
+        <v>-0.5331721056134783</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2925642799673934</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.366488713307255</v>
+        <v>-1.403582695104881</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.11894631978223</v>
+        <v>-1.128011758378682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5462935578064748</v>
+        <v>-0.5593317872582895</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.297254191860127</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.426014873973602</v>
+        <v>-1.46299935216441</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.196854485913118</v>
+        <v>-1.213877186605023</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6008570150118238</v>
+        <v>-0.613552133162275</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3012962725214164</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.52617563305803</v>
+        <v>-1.560933537910202</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.287739559476003</v>
+        <v>-1.305947819217725</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6471200988203568</v>
+        <v>-0.6566556729020815</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3054077160972803</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.55374718120675</v>
+        <v>-1.579500969482288</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.35749919721153</v>
+        <v>-1.37848300837407</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6706560740458051</v>
+        <v>-0.6814735703513476</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.309891053490656</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.621049558005277</v>
+        <v>-1.638421210190909</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.439477977419871</v>
+        <v>-1.46127941551332</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6666920434789879</v>
+        <v>-0.6728870275287135</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.315033524662724</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677048242483989</v>
+        <v>-1.692952546338258</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.515290974540306</v>
+        <v>-1.534070113085573</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6910996674147086</v>
+        <v>-0.6992219149444338</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3208586746769355</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.70892693250089</v>
+        <v>-1.731655501132066</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.626435675412639</v>
+        <v>-1.649396391690269</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7314364160222433</v>
+        <v>-0.7470195092965118</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3273696053695602</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.689712699624531</v>
+        <v>-1.710525685160435</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.720017457799432</v>
+        <v>-1.74165683055479</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7542788684045099</v>
+        <v>-0.7669973473244155</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3343018045690846</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.678232341485716</v>
+        <v>-1.701619391805892</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.772901859700236</v>
+        <v>-1.796693343341594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7768132506395947</v>
+        <v>-0.7839558059003201</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3409341676842239</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.62895863851373</v>
+        <v>-1.651157209687905</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.845777240061762</v>
+        <v>-1.864257068748394</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7733222756542321</v>
+        <v>-0.784198173883411</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3460112036424891</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.541170326951662</v>
+        <v>-1.557617768695749</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.949543587906689</v>
+        <v>-1.961323985928186</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7768059503991401</v>
+        <v>-0.7854523551935015</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3487744687479839</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424024828425694</v>
+        <v>-1.439402054919144</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.003663920516447</v>
+        <v>-2.01365429957849</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7645795076858707</v>
+        <v>-0.7673521390105064</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3481906611137515</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289780706707093</v>
+        <v>-1.296451666434455</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.054423222420934</v>
+        <v>-2.067387719444157</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7518172273232377</v>
+        <v>-0.75395765782451</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3436158393175676</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.109181518150233</v>
+        <v>-1.104547325509688</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082597770431199</v>
+        <v>-2.087678007763516</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7256896667364267</v>
+        <v>-0.7271438746349717</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3340938289217664</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9500713173953664</v>
+        <v>-0.9336282557955526</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079122125950791</v>
+        <v>-2.089871730020106</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.670625413035896</v>
+        <v>-0.6720548001168956</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3189355684777195</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7072901406947952</v>
+        <v>-0.6962799180412527</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.115215974806144</v>
+        <v>-2.120334173388825</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6105050127965485</v>
+        <v>-0.6196332334609097</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2976216152349394</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4493857858685917</v>
+        <v>-0.4359518833841408</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.117903923341507</v>
+        <v>-2.119734823647507</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5167290440136646</v>
+        <v>-0.5214493794915723</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2706470660112354</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1573031652823065</v>
+        <v>-0.1524426651876715</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.103052314160784</v>
+        <v>-2.106472476813738</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4475388250335922</v>
+        <v>-0.4542156249533177</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2382180192600753</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1446800414084306</v>
+        <v>0.1432389739427037</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.03490310946953</v>
+        <v>-2.052427336680661</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3325089361913504</v>
+        <v>-0.3398777989061666</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2015426418494882</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4910326495337921</v>
+        <v>0.4829717240238852</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.977096885454272</v>
+        <v>-1.996641089199176</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2521785502776447</v>
+        <v>-0.258617362358552</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1618531552247929</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7980851431961642</v>
+        <v>0.7863288359681674</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.904747852429519</v>
+        <v>-1.922392533608151</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1778402017290283</v>
+        <v>-0.1867421149392986</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.120497156455125</v>
       </c>
       <c r="E86" t="n">
-        <v>1.113687678478898</v>
+        <v>1.105150777291354</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.853873936749896</v>
+        <v>-1.877333989474617</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1053444338711387</v>
+        <v>-0.1095946338637739</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07931180859167387</v>
       </c>
       <c r="E87" t="n">
-        <v>1.35727480172565</v>
+        <v>1.358253033946559</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.676764993154353</v>
+        <v>-1.712504050323616</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05861267462542394</v>
+        <v>-0.06195180460933213</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03943721695389202</v>
       </c>
       <c r="E88" t="n">
-        <v>1.581643311951772</v>
+        <v>1.579698527894682</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.494496969629584</v>
+        <v>-1.5353345147323</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01031327565019392</v>
+        <v>0.007961138175740004</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.001851849638363861</v>
       </c>
       <c r="E89" t="n">
-        <v>1.77091518616863</v>
+        <v>1.761164985017542</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.259138677423193</v>
+        <v>-1.31646308556845</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06657330873717882</v>
+        <v>0.06369847404617958</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03328312473817539</v>
       </c>
       <c r="E90" t="n">
-        <v>1.953561362148945</v>
+        <v>1.940788861449676</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.028652565696163</v>
+        <v>-1.090758631339147</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09848411981207933</v>
+        <v>0.09578595094008006</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06503513551732427</v>
       </c>
       <c r="E91" t="n">
-        <v>2.138711520605168</v>
+        <v>2.124297925851717</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8033321041147694</v>
+        <v>-0.8679465323779338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08194761513444741</v>
+        <v>0.0806204314198114</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09329069544431397</v>
       </c>
       <c r="E92" t="n">
-        <v>2.254255346375409</v>
+        <v>2.24294435381514</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6025141695950051</v>
+        <v>-0.667522810842715</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0917824990748084</v>
+        <v>0.09492890271071665</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1164182257591038</v>
       </c>
       <c r="E93" t="n">
-        <v>2.358816690405836</v>
+        <v>2.347505697845566</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3532810403807085</v>
+        <v>-0.4169873187313277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04227226831209443</v>
+        <v>0.04831248726418372</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1332701424987601</v>
       </c>
       <c r="E94" t="n">
-        <v>2.377426463372558</v>
+        <v>2.367906949819834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2114140075794738</v>
+        <v>-0.2759948547365474</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007353758169921986</v>
+        <v>0.01161563854728448</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1426065819321506</v>
       </c>
       <c r="E95" t="n">
-        <v>2.330804207733662</v>
+        <v>2.328561573866026</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.04890919501324473</v>
+        <v>-0.1049648213675024</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02896931823570462</v>
+        <v>-0.02727858254643235</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1446175286575455</v>
       </c>
       <c r="E96" t="n">
-        <v>2.231274189424507</v>
+        <v>2.230726671390416</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07127320354181391</v>
+        <v>0.01569647296137429</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07197503475342035</v>
+        <v>-0.06565886671214932</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1403551383804646</v>
       </c>
       <c r="E97" t="n">
-        <v>2.084464893835546</v>
+        <v>2.07748148381673</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404240012234317</v>
+        <v>0.09635244959935263</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1276393682193145</v>
+        <v>-0.1176599395179535</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1311864856991998</v>
       </c>
       <c r="E98" t="n">
-        <v>1.890748633229962</v>
+        <v>1.884128775185782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2045434731837781</v>
+        <v>0.1664990000789702</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.140344706706402</v>
+        <v>-0.1380495111074935</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1191117654274055</v>
       </c>
       <c r="E99" t="n">
-        <v>1.693639220861106</v>
+        <v>1.682439191955745</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2131416963911394</v>
+        <v>0.1822558390760568</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1338080714034038</v>
+        <v>-0.1360069038283122</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.103328998901638</v>
       </c>
       <c r="E100" t="n">
-        <v>1.53705344325542</v>
+        <v>1.515199443430699</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2354351706912244</v>
+        <v>0.2113399970469581</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1307945321437682</v>
+        <v>-0.1297213967969503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.08576591252554031</v>
       </c>
       <c r="E101" t="n">
-        <v>1.395437538725822</v>
+        <v>1.365483192092739</v>
       </c>
       <c r="F101" t="n">
-        <v>0.224950565350409</v>
+        <v>0.2092623486135951</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105860065175009</v>
+        <v>-0.111127684359228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0633334830216942</v>
       </c>
       <c r="E102" t="n">
-        <v>1.216752473216143</v>
+        <v>1.171892495622973</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2389407461574962</v>
+        <v>0.2224188419607733</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1418777572018561</v>
+        <v>-0.1428443090380377</v>
       </c>
     </row>
   </sheetData>
